--- a/Raul's Log.xlsx
+++ b/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="148">
   <si>
     <t>Staff Name</t>
   </si>
@@ -945,7 +945,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:F37"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,23 +979,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="10">
-        <v>42570</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
@@ -1010,7 +993,7 @@
         <v>73</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1027,7 +1010,7 @@
         <v>73</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,18 +1021,18 @@
         <v>42570</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10">
         <v>42570</v>
@@ -1058,18 +1041,15 @@
         <v>110</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B7" s="10">
         <v>42570</v>
@@ -1084,18 +1064,18 @@
         <v>112</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="10">
         <v>42570</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>55</v>
@@ -1104,12 +1084,12 @@
         <v>112</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B9" s="10">
         <v>42570</v>
@@ -1124,7 +1104,7 @@
         <v>112</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,13 +1115,16 @@
         <v>42570</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,7 +1141,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,13 +1152,13 @@
         <v>42570</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1186,13 +1169,13 @@
         <v>42570</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,13 +1186,13 @@
         <v>42570</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1220,13 +1203,13 @@
         <v>42570</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,13 +1254,13 @@
         <v>42570</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,13 +1271,13 @@
         <v>42570</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1311,7 +1294,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1328,7 +1311,7 @@
         <v>73</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1345,7 +1328,7 @@
         <v>73</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1356,13 +1339,13 @@
         <v>42570</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1379,7 +1362,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1390,13 +1373,13 @@
         <v>42570</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1407,13 +1390,13 @@
         <v>42570</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,13 +1407,13 @@
         <v>42570</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,13 +1424,13 @@
         <v>42570</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1464,7 +1447,7 @@
         <v>55</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1481,7 +1464,7 @@
         <v>55</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1498,7 +1481,7 @@
         <v>55</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,7 +1498,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1526,13 +1509,13 @@
         <v>42570</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1549,7 +1532,7 @@
         <v>55</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1560,13 +1543,13 @@
         <v>42570</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">

--- a/Raul's Log.xlsx
+++ b/Raul's Log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -471,7 +476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -648,6 +653,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -695,7 +703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,9 +736,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,6 +788,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -944,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B3:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +1026,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>106</v>
@@ -1001,7 +1043,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>106</v>
@@ -1018,7 +1060,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>106</v>
@@ -1035,7 +1077,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>110</v>
@@ -1052,7 +1094,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>110</v>
@@ -1072,7 +1114,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>110</v>
@@ -1092,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>115</v>
@@ -1112,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>115</v>
@@ -1132,7 +1174,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>127</v>
@@ -1149,7 +1191,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>127</v>
@@ -1166,7 +1208,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>110</v>
@@ -1183,7 +1225,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>128</v>
@@ -1200,7 +1242,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>110</v>
@@ -1217,7 +1259,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>127</v>
@@ -1234,7 +1276,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>127</v>
@@ -1251,7 +1293,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>127</v>
@@ -1268,7 +1310,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>129</v>
@@ -1285,7 +1327,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>110</v>
@@ -1302,7 +1344,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>110</v>
@@ -1319,7 +1361,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>110</v>
@@ -1336,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>110</v>
@@ -1353,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>128</v>
@@ -1370,7 +1412,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>128</v>
@@ -1387,7 +1429,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>110</v>
@@ -1404,7 +1446,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>147</v>
@@ -1421,7 +1463,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>115</v>
@@ -1438,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>147</v>
@@ -1455,7 +1497,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>147</v>
@@ -1472,7 +1514,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>147</v>
@@ -1489,7 +1531,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>147</v>
@@ -1506,7 +1548,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>147</v>
@@ -1523,7 +1565,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>110</v>
@@ -1540,7 +1582,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>110</v>
@@ -1557,7 +1599,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>127</v>

--- a/Raul's Log.xlsx
+++ b/Raul's Log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="170">
   <si>
     <t>Staff Name</t>
   </si>
@@ -471,12 +466,78 @@
   </si>
   <si>
     <t>1600</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>N107</t>
+  </si>
+  <si>
+    <t>S124</t>
+  </si>
+  <si>
+    <t>W133</t>
+  </si>
+  <si>
+    <t>W256</t>
+  </si>
+  <si>
+    <t>Please return to ACE 015</t>
+  </si>
+  <si>
+    <t>Private D Room</t>
+  </si>
+  <si>
+    <t>Pick up 13 IR mics, 26 batteries and 2 battery chargers(with power supplies) and return to SSB N103</t>
+  </si>
+  <si>
+    <t>Turn off projector with remote (from podium drawer)</t>
+  </si>
+  <si>
+    <t>private D Room</t>
+  </si>
+  <si>
+    <t>Pick up 2 neck mics, 2 receivers and mixer (from inside podium) and 2 XLR cables and return to SSB N103. Please leave XLR cable connecting to wall plug in place!</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>N106</t>
+  </si>
+  <si>
+    <t>S123</t>
+  </si>
+  <si>
+    <t>W132</t>
+  </si>
+  <si>
+    <t>1830</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -653,9 +714,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -703,7 +761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,26 +794,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,23 +829,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -984,19 +1008,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B3:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="10" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.42578125" style="19" customWidth="1"/>
     <col min="7" max="16384" width="22.140625" style="3"/>
   </cols>
@@ -1026,7 +1050,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>106</v>
@@ -1043,7 +1067,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>106</v>
@@ -1060,7 +1084,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>106</v>
@@ -1077,7 +1101,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>110</v>
@@ -1094,7 +1118,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>110</v>
@@ -1114,7 +1138,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>110</v>
@@ -1134,7 +1158,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>115</v>
@@ -1154,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>115</v>
@@ -1174,7 +1198,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>127</v>
@@ -1191,7 +1215,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>127</v>
@@ -1208,7 +1232,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>110</v>
@@ -1225,7 +1249,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>128</v>
@@ -1242,7 +1266,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>110</v>
@@ -1259,7 +1283,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>127</v>
@@ -1276,7 +1300,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>127</v>
@@ -1293,7 +1317,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>127</v>
@@ -1310,7 +1334,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>129</v>
@@ -1327,7 +1351,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>110</v>
@@ -1344,7 +1368,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>110</v>
@@ -1361,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>110</v>
@@ -1378,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>110</v>
@@ -1395,7 +1419,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>128</v>
@@ -1412,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>128</v>
@@ -1429,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>110</v>
@@ -1446,7 +1470,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>147</v>
@@ -1463,7 +1487,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>115</v>
@@ -1480,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>147</v>
@@ -1497,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>147</v>
@@ -1514,7 +1538,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>147</v>
@@ -1531,7 +1555,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>147</v>
@@ -1548,7 +1572,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>147</v>
@@ -1565,7 +1589,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>110</v>
@@ -1582,7 +1606,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>110</v>
@@ -1599,7 +1623,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>127</v>
@@ -1609,6 +1633,919 @@
       </c>
       <c r="E36" s="11" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="10">
+        <v>42573</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="10">
+        <v>42573</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="10">
+        <v>42573</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="10">
+        <v>42573</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Raul's Log.xlsx
+++ b/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="175">
   <si>
     <t>Staff Name</t>
   </si>
@@ -532,6 +532,21 @@
   </si>
   <si>
     <t>1830</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>N105</t>
+  </si>
+  <si>
+    <t>N109</t>
+  </si>
+  <si>
+    <t>N201</t>
+  </si>
+  <si>
+    <t>W255</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1023,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,6 +2561,533 @@
       </c>
       <c r="E100" s="11" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" s="10">
+        <v>42577</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
